--- a/forms/app/pregnancy_check_up_form.xlsx
+++ b/forms/app/pregnancy_check_up_form.xlsx
@@ -586,7 +586,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>Pregnancy registration</t>
+    <t>Pregnancy check up</t>
   </si>
   <si>
     <t>pregnancy_check_up_form</t>
@@ -891,11 +891,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1015,9 +1015,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,58 +1033,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1092,6 +1046,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,24 +1106,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,7 +1128,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -1151,16 +1158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,19 +1343,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,103 +1421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,7 +1439,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,19 +1499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,17 +1546,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,26 +1579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,17 +1620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,148 +1646,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1828,7 +1828,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15671,7 +15671,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>45394.3914699074</v>
+        <v>45399.4370833333</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>127</v>
